--- a/nuno-dataset/test-solidos-03/better_results.xlsx
+++ b/nuno-dataset/test-solidos-03/better_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,36 +491,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>model_5_9_3</t>
+          <t>model_1_9_0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9284869772635133</v>
+        <v>0.9470924293348159</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8959333329299422</v>
+        <v>0.7175003762110845</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9524747784542125</v>
+        <v>0.9382718158009447</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9451092225119221</v>
+        <v>0.8402059836498454</v>
       </c>
       <c r="G2" t="n">
-        <v>8.624491691589355</v>
+        <v>6.380668640136719</v>
       </c>
       <c r="H2" t="n">
-        <v>7.592819213867188</v>
+        <v>24.02357482910156</v>
       </c>
       <c r="I2" t="n">
-        <v>8.682015419006348</v>
+        <v>7.361325740814209</v>
       </c>
       <c r="J2" t="n">
-        <v>8.105384826660156</v>
+        <v>16.18251991271973</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
@@ -530,1518 +530,5340 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>model_5_6_0</t>
+          <t>model_1_9_1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8952555745657707</v>
+        <v>0.9468970443567477</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9562510861075816</v>
+        <v>0.7116292505132309</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8753719336582164</v>
+        <v>0.9382644098994101</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9183158464701778</v>
+        <v>0.8375919187933601</v>
       </c>
       <c r="G3" t="n">
-        <v>12.63220882415771</v>
+        <v>6.404232501983643</v>
       </c>
       <c r="H3" t="n">
-        <v>4.984435558319092</v>
+        <v>24.52285003662109</v>
       </c>
       <c r="I3" t="n">
-        <v>14.61978912353516</v>
+        <v>7.362209320068359</v>
       </c>
       <c r="J3" t="n">
-        <v>9.519228935241699</v>
+        <v>16.44725036621094</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>model_5_9_2</t>
+          <t>model_1_9_2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.888618669405522</v>
+        <v>0.9466606206521389</v>
       </c>
       <c r="D4" t="n">
-        <v>0.751568153937722</v>
+        <v>0.7060356263475729</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9584549938590951</v>
+        <v>0.9378544569075956</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9108271567395717</v>
+        <v>0.8348778829629133</v>
       </c>
       <c r="G4" t="n">
-        <v>13.43262195587158</v>
+        <v>6.43274450302124</v>
       </c>
       <c r="H4" t="n">
-        <v>18.12586212158203</v>
+        <v>24.99852752685547</v>
       </c>
       <c r="I4" t="n">
-        <v>7.589536666870117</v>
+        <v>7.411097526550293</v>
       </c>
       <c r="J4" t="n">
-        <v>13.16760635375977</v>
+        <v>16.72210502624512</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>model_5_5_12</t>
+          <t>model_1_9_3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8885810432634639</v>
+        <v>0.9463773970734971</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7905165631261288</v>
+        <v>0.7007257011810487</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4537982443965711</v>
+        <v>0.9370039141968086</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6515094856334571</v>
+        <v>0.83204613622445</v>
       </c>
       <c r="G5" t="n">
-        <v>13.43715953826904</v>
+        <v>6.466902256011963</v>
       </c>
       <c r="H5" t="n">
-        <v>19.04621315002441</v>
+        <v>25.4500789642334</v>
       </c>
       <c r="I5" t="n">
-        <v>44.17144775390625</v>
+        <v>7.512527465820312</v>
       </c>
       <c r="J5" t="n">
-        <v>30.86991882324219</v>
+        <v>17.00887870788574</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>model_5_4_5</t>
+          <t>model_1_9_4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8859661220055545</v>
+        <v>0.9460432915571395</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7861838598118893</v>
+        <v>0.6956751236379739</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7720702413056075</v>
+        <v>0.9356955058857224</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7770617480569313</v>
+        <v>0.8290756301112673</v>
       </c>
       <c r="G6" t="n">
-        <v>13.75251960754395</v>
+        <v>6.507194995880127</v>
       </c>
       <c r="H6" t="n">
-        <v>13.39168262481689</v>
+        <v>25.87957954406738</v>
       </c>
       <c r="I6" t="n">
-        <v>30.74262046813965</v>
+        <v>7.668560981750488</v>
       </c>
       <c r="J6" t="n">
-        <v>21.55682373046875</v>
+        <v>17.30970573425293</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>model_5_4_6</t>
+          <t>model_1_9_5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8836143799230526</v>
+        <v>0.9456523950427579</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7567453097727583</v>
+        <v>0.690803514956969</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7675894873687279</v>
+        <v>0.9339545034584823</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7640251982722892</v>
+        <v>0.8259447845557414</v>
       </c>
       <c r="G7" t="n">
-        <v>14.03614044189453</v>
+        <v>6.554337501525879</v>
       </c>
       <c r="H7" t="n">
-        <v>15.23546886444092</v>
+        <v>26.29385375976562</v>
       </c>
       <c r="I7" t="n">
-        <v>31.34697341918945</v>
+        <v>7.876181602478027</v>
       </c>
       <c r="J7" t="n">
-        <v>22.81738090515137</v>
+        <v>17.62677001953125</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>model_5_4_4</t>
+          <t>model_1_9_6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.883549078004239</v>
+        <v>0.9452202698071306</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8085379592152072</v>
+        <v>0.6862394474919138</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7656129000561886</v>
+        <v>0.9317788979165985</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7804887177496207</v>
+        <v>0.8227106001723533</v>
       </c>
       <c r="G8" t="n">
-        <v>14.04401588439941</v>
+        <v>6.606451988220215</v>
       </c>
       <c r="H8" t="n">
-        <v>11.99160480499268</v>
+        <v>26.68198013305664</v>
       </c>
       <c r="I8" t="n">
-        <v>31.61357116699219</v>
+        <v>8.135631561279297</v>
       </c>
       <c r="J8" t="n">
-        <v>21.22545623779297</v>
+        <v>17.95429801940918</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>model_5_4_7</t>
+          <t>model_1_9_7</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.882232952871285</v>
+        <v>0.9447613522097139</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7284794531430248</v>
+        <v>0.6819072283989136</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7639984570404903</v>
+        <v>0.9293460150524573</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7519754951448291</v>
+        <v>0.8194362870502123</v>
       </c>
       <c r="G9" t="n">
-        <v>14.20274066925049</v>
+        <v>6.661797523498535</v>
       </c>
       <c r="H9" t="n">
-        <v>17.00580978393555</v>
+        <v>27.05039024353027</v>
       </c>
       <c r="I9" t="n">
-        <v>31.83132362365723</v>
+        <v>8.425762176513672</v>
       </c>
       <c r="J9" t="n">
-        <v>23.98252105712891</v>
+        <v>18.28589248657227</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>model_5_4_9</t>
+          <t>model_5_9_5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8815036627497709</v>
+        <v>0.9445995019745975</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6888229274059132</v>
+        <v>0.8045014709262561</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7625852280932733</v>
+        <v>0.9423827768568968</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7374489982994696</v>
+        <v>0.9000372539701019</v>
       </c>
       <c r="G10" t="n">
-        <v>14.29069328308105</v>
+        <v>6.681316375732422</v>
       </c>
       <c r="H10" t="n">
-        <v>19.48956871032715</v>
+        <v>10.83207321166992</v>
       </c>
       <c r="I10" t="n">
-        <v>32.02193832397461</v>
+        <v>5.500554084777832</v>
       </c>
       <c r="J10" t="n">
-        <v>25.38714408874512</v>
+        <v>8.323124885559082</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>model_5_4_8</t>
+          <t>model_1_9_8</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8810578168979054</v>
+        <v>0.9442778725892467</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7000974066252579</v>
+        <v>0.6777157565589248</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7628602004883278</v>
+        <v>0.9267238215666189</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7414956554819871</v>
+        <v>0.8161205089061268</v>
       </c>
       <c r="G11" t="n">
-        <v>14.34446239471436</v>
+        <v>6.720105171203613</v>
       </c>
       <c r="H11" t="n">
-        <v>18.78342628479004</v>
+        <v>27.40682983398438</v>
       </c>
       <c r="I11" t="n">
-        <v>31.98484992980957</v>
+        <v>8.738468170166016</v>
       </c>
       <c r="J11" t="n">
-        <v>24.99585723876953</v>
+        <v>18.62168502807617</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>model_5_4_10</t>
+          <t>model_5_9_6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8800953437848618</v>
+        <v>0.9440831985511453</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6731242797128474</v>
+        <v>0.8088792199790932</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7599129574162469</v>
+        <v>0.9233923570010709</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7303112582547971</v>
+        <v>0.8913329000057253</v>
       </c>
       <c r="G12" t="n">
-        <v>14.46053791046143</v>
+        <v>6.743582725524902</v>
       </c>
       <c r="H12" t="n">
-        <v>20.47280120849609</v>
+        <v>10.58951282501221</v>
       </c>
       <c r="I12" t="n">
-        <v>32.38236999511719</v>
+        <v>7.313516616821289</v>
       </c>
       <c r="J12" t="n">
-        <v>26.07732200622559</v>
+        <v>9.047868728637695</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>model_5_4_11</t>
+          <t>model_1_9_9</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8769699126446133</v>
+        <v>0.9437864044191036</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6560383622182662</v>
+        <v>0.6736744264922776</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7427498318312065</v>
+        <v>0.9240251182009843</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7131866686280213</v>
+        <v>0.8128284331383639</v>
       </c>
       <c r="G13" t="n">
-        <v>14.83746433258057</v>
+        <v>6.77937650680542</v>
       </c>
       <c r="H13" t="n">
-        <v>21.54292297363281</v>
+        <v>27.75050163269043</v>
       </c>
       <c r="I13" t="n">
-        <v>34.69728851318359</v>
+        <v>9.060299873352051</v>
       </c>
       <c r="J13" t="n">
-        <v>27.7331714630127</v>
+        <v>18.95507621765137</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>model_5_5_3</t>
+          <t>model_5_9_7</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8769648688345044</v>
+        <v>0.9435871923194781</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9175978270458035</v>
+        <v>0.8116214283173512</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6188064528476585</v>
+        <v>0.9062884055515935</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7914541096727064</v>
+        <v>0.8830702664324726</v>
       </c>
       <c r="G14" t="n">
-        <v>14.83807373046875</v>
+        <v>6.803401470184326</v>
       </c>
       <c r="H14" t="n">
-        <v>7.491997718811035</v>
+        <v>10.43757438659668</v>
       </c>
       <c r="I14" t="n">
-        <v>30.82719993591309</v>
+        <v>8.946382522583008</v>
       </c>
       <c r="J14" t="n">
-        <v>18.4733715057373</v>
+        <v>9.735834121704102</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>model_5_4_3</t>
+          <t>model_1_9_10</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.8764707524906362</v>
+        <v>0.9433027284615345</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8541303213770037</v>
+        <v>0.6698508800441469</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7406962077929066</v>
+        <v>0.9213150050409343</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7797670637761029</v>
+        <v>0.8096264469760903</v>
       </c>
       <c r="G15" t="n">
-        <v>14.89766407012939</v>
+        <v>6.83770751953125</v>
       </c>
       <c r="H15" t="n">
-        <v>9.136074066162109</v>
+        <v>28.07565307617188</v>
       </c>
       <c r="I15" t="n">
-        <v>34.97427749633789</v>
+        <v>9.383491516113281</v>
       </c>
       <c r="J15" t="n">
-        <v>21.29523658752441</v>
+        <v>19.27934455871582</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>model_5_5_6</t>
+          <t>model_5_9_4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8748278787825713</v>
+        <v>0.9428344577958778</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8790727495278154</v>
+        <v>0.7927561447583923</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4040404503080973</v>
+        <v>0.9466926626327723</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6782525526168752</v>
+        <v>0.8982249009447634</v>
       </c>
       <c r="G16" t="n">
-        <v>15.09579467773438</v>
+        <v>6.894181251525879</v>
       </c>
       <c r="H16" t="n">
-        <v>10.99469375610352</v>
+        <v>11.4828519821167</v>
       </c>
       <c r="I16" t="n">
-        <v>48.19537353515625</v>
+        <v>5.089101791381836</v>
       </c>
       <c r="J16" t="n">
-        <v>28.50096702575684</v>
+        <v>8.474024772644043</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>model_5_5_5</t>
+          <t>model_1_9_11</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8742769537857925</v>
+        <v>0.9428102121174708</v>
       </c>
       <c r="D17" t="n">
-        <v>0.896901735746659</v>
+        <v>0.6660615818145468</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4356306242452724</v>
+        <v>0.9185944093021235</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7015136920242375</v>
+        <v>0.8064343852904325</v>
       </c>
       <c r="G17" t="n">
-        <v>15.1622371673584</v>
+        <v>6.89710521697998</v>
       </c>
       <c r="H17" t="n">
-        <v>9.373683929443359</v>
+        <v>28.39789199829102</v>
       </c>
       <c r="I17" t="n">
-        <v>45.64066314697266</v>
+        <v>9.707932472229004</v>
       </c>
       <c r="J17" t="n">
-        <v>26.44045448303223</v>
+        <v>19.60260963439941</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>model_5_4_12</t>
+          <t>model_1_9_12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8731664819985711</v>
+        <v>0.9423180016688811</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6371176523762422</v>
+        <v>0.6624078090278527</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7280088734911934</v>
+        <v>0.9158558817710941</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6970217520443549</v>
+        <v>0.8032925695635187</v>
       </c>
       <c r="G18" t="n">
-        <v>15.29615879058838</v>
+        <v>6.956466197967529</v>
       </c>
       <c r="H18" t="n">
-        <v>22.72795867919922</v>
+        <v>28.70860862731934</v>
       </c>
       <c r="I18" t="n">
-        <v>36.68551254272461</v>
+        <v>10.03451347351074</v>
       </c>
       <c r="J18" t="n">
-        <v>29.29622268676758</v>
+        <v>19.92078590393066</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>model_5_9_1</t>
+          <t>model_1_9_13</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8716405978201885</v>
+        <v>0.9418240540810974</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8800322269497474</v>
+        <v>0.6588675216007065</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9502652776863519</v>
+        <v>0.9131003444779404</v>
       </c>
       <c r="F19" t="n">
-        <v>0.939663434895722</v>
+        <v>0.8001912965198417</v>
       </c>
       <c r="G19" t="n">
-        <v>15.48018169403076</v>
+        <v>7.016036510467529</v>
       </c>
       <c r="H19" t="n">
-        <v>8.75298023223877</v>
+        <v>29.00967025756836</v>
       </c>
       <c r="I19" t="n">
-        <v>9.085652351379395</v>
+        <v>10.36312103271484</v>
       </c>
       <c r="J19" t="n">
-        <v>8.909529685974121</v>
+        <v>20.2348518371582</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>model_5_8_0</t>
+          <t>model_5_9_3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.871295255765705</v>
+        <v>0.9416616216555356</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7768788303279792</v>
+        <v>0.7796063207302759</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9961174416593603</v>
+        <v>0.9577612662178379</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8884395267229344</v>
+        <v>0.8995644163780531</v>
       </c>
       <c r="G20" t="n">
-        <v>15.52183055877686</v>
+        <v>7.035625457763672</v>
       </c>
       <c r="H20" t="n">
-        <v>22.13345146179199</v>
+        <v>12.21145057678223</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4301358461380005</v>
+        <v>4.032413482666016</v>
       </c>
       <c r="J20" t="n">
-        <v>11.92012882232666</v>
+        <v>8.362494468688965</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>model_5_4_13</t>
+          <t>model_1_9_14</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8706365575935459</v>
+        <v>0.9413264858481645</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6336639196273337</v>
+        <v>0.6554286627983661</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7080078482956702</v>
+        <v>0.9103166357854184</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6827084804310749</v>
+        <v>0.7971200275974948</v>
       </c>
       <c r="G21" t="n">
-        <v>15.60126781463623</v>
+        <v>7.076043128967285</v>
       </c>
       <c r="H21" t="n">
-        <v>22.94427299499512</v>
+        <v>29.3021068572998</v>
       </c>
       <c r="I21" t="n">
-        <v>39.38320159912109</v>
+        <v>10.69508934020996</v>
       </c>
       <c r="J21" t="n">
-        <v>30.68023681640625</v>
+        <v>20.54588317871094</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>model_5_5_8</t>
+          <t>model_1_9_15</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.8701416367982655</v>
+        <v>0.940830352273332</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8504405171489035</v>
+        <v>0.6521508745415089</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3543963639348739</v>
+        <v>0.9074939824110115</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6413661969959992</v>
+        <v>0.7940992796552098</v>
       </c>
       <c r="G22" t="n">
-        <v>15.66095733642578</v>
+        <v>7.135877132415771</v>
       </c>
       <c r="H22" t="n">
-        <v>13.59793472290039</v>
+        <v>29.58085060119629</v>
       </c>
       <c r="I22" t="n">
-        <v>52.21009826660156</v>
+        <v>11.03170204162598</v>
       </c>
       <c r="J22" t="n">
-        <v>31.76842498779297</v>
+        <v>20.85179710388184</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>model_5_5_9</t>
+          <t>model_1_9_16</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.869988224060068</v>
+        <v>0.9403258761104377</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8496104100762532</v>
+        <v>0.6489614039732936</v>
       </c>
       <c r="E23" t="n">
-        <v>0.346587507448306</v>
+        <v>0.9046163598490385</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6375609522371927</v>
+        <v>0.7910862875818258</v>
       </c>
       <c r="G23" t="n">
-        <v>15.67945861816406</v>
+        <v>7.196716785430908</v>
       </c>
       <c r="H23" t="n">
-        <v>13.67340660095215</v>
+        <v>29.85208129882812</v>
       </c>
       <c r="I23" t="n">
-        <v>52.84159851074219</v>
+        <v>11.37486934661865</v>
       </c>
       <c r="J23" t="n">
-        <v>32.10549926757812</v>
+        <v>21.15692710876465</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>model_5_5_7</t>
+          <t>model_1_9_17</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.869845299912014</v>
+        <v>0.9398064331705397</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8515166199898578</v>
+        <v>0.645893306043883</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3618284908318902</v>
+        <v>0.9015987437797168</v>
       </c>
       <c r="F24" t="n">
-        <v>0.645144351949766</v>
+        <v>0.7880501585792303</v>
       </c>
       <c r="G24" t="n">
-        <v>15.69669532775879</v>
+        <v>7.25936222076416</v>
       </c>
       <c r="H24" t="n">
-        <v>13.50009536743164</v>
+        <v>30.11298942565918</v>
       </c>
       <c r="I24" t="n">
-        <v>51.60905838012695</v>
+        <v>11.73473167419434</v>
       </c>
       <c r="J24" t="n">
-        <v>31.43375205993652</v>
+        <v>21.46439933776855</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>model_5_8_1</t>
+          <t>model_1_9_18</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.8698154055350423</v>
+        <v>0.9392798598538272</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6883579962746735</v>
+        <v>0.6429693061245789</v>
       </c>
       <c r="E25" t="n">
-        <v>0.948428257776205</v>
+        <v>0.8984991153264316</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8216619533457213</v>
+        <v>0.7850325342799156</v>
       </c>
       <c r="G25" t="n">
-        <v>15.7003002166748</v>
+        <v>7.322867393493652</v>
       </c>
       <c r="H25" t="n">
-        <v>30.9146556854248</v>
+        <v>30.36164665222168</v>
       </c>
       <c r="I25" t="n">
-        <v>5.713463306427002</v>
+        <v>12.10437393188477</v>
       </c>
       <c r="J25" t="n">
-        <v>19.05525016784668</v>
+        <v>21.76999855041504</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>model_5_5_4</t>
+          <t>model_1_9_19</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.8689065330913656</v>
+        <v>0.9387362070685199</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9346516937200519</v>
+        <v>0.6401474184936032</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4366407397531857</v>
+        <v>0.8952672235366572</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7224593793814105</v>
+        <v>0.781987232120283</v>
       </c>
       <c r="G26" t="n">
-        <v>15.80991077423096</v>
+        <v>7.388431549072266</v>
       </c>
       <c r="H26" t="n">
-        <v>5.941461563110352</v>
+        <v>30.60161590576172</v>
       </c>
       <c r="I26" t="n">
-        <v>45.55897903442383</v>
+        <v>12.48978996276855</v>
       </c>
       <c r="J26" t="n">
-        <v>24.58504676818848</v>
+        <v>22.07839965820312</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>model_5_5_2</t>
+          <t>model_5_9_11</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8661329407370739</v>
+        <v>0.9384556927505892</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8584623161772486</v>
+        <v>0.7949879130231794</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6947078198571554</v>
+        <v>0.8368475184459393</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7919309323674868</v>
+        <v>0.8397420279035569</v>
       </c>
       <c r="G27" t="n">
-        <v>16.14440727233887</v>
+        <v>7.422261714935303</v>
       </c>
       <c r="H27" t="n">
-        <v>12.86859321594238</v>
+        <v>11.35919570922852</v>
       </c>
       <c r="I27" t="n">
-        <v>24.68904113769531</v>
+        <v>15.57571029663086</v>
       </c>
       <c r="J27" t="n">
-        <v>18.43113327026367</v>
+        <v>13.34344100952148</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>model_5_5_1</t>
+          <t>model_1_9_20</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.864784206549317</v>
+        <v>0.9381627521278897</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8597636915669253</v>
+        <v>0.6374159476190284</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6985690556636186</v>
+        <v>0.8918110344627165</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7942967985676817</v>
+        <v>0.7788575132549393</v>
       </c>
       <c r="G28" t="n">
-        <v>16.30706596374512</v>
+        <v>7.457590579986572</v>
       </c>
       <c r="H28" t="n">
-        <v>12.75027084350586</v>
+        <v>30.83389663696289</v>
       </c>
       <c r="I28" t="n">
-        <v>24.37678146362305</v>
+        <v>12.90195369720459</v>
       </c>
       <c r="J28" t="n">
-        <v>18.22155952453613</v>
+        <v>22.39534950256348</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>model_5_8_2</t>
+          <t>model_1_9_21</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8575537707683284</v>
+        <v>0.9375726846430039</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5493813757498861</v>
+        <v>0.6348575795260569</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8940149954038172</v>
+        <v>0.888162963728832</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7268036360947603</v>
+        <v>0.7756983186827775</v>
       </c>
       <c r="G29" t="n">
-        <v>17.17905807495117</v>
+        <v>7.52875280380249</v>
       </c>
       <c r="H29" t="n">
-        <v>44.70102691650391</v>
+        <v>31.05145645141602</v>
       </c>
       <c r="I29" t="n">
-        <v>11.74172973632812</v>
+        <v>13.33700084686279</v>
       </c>
       <c r="J29" t="n">
-        <v>29.19076919555664</v>
+        <v>22.71528625488281</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>model_5_4_14</t>
+          <t>model_5_9_9</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.8558378326290415</v>
+        <v>0.9374028099472641</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5897206105431054</v>
+        <v>0.8007217896434163</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6280202074127532</v>
+        <v>0.8425429333878875</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6151345128946719</v>
+        <v>0.8448351420453979</v>
       </c>
       <c r="G30" t="n">
-        <v>17.38599967956543</v>
+        <v>7.549240112304688</v>
       </c>
       <c r="H30" t="n">
-        <v>25.69652366638184</v>
+        <v>11.04149532318115</v>
       </c>
       <c r="I30" t="n">
-        <v>50.17174530029297</v>
+        <v>15.03198432922363</v>
       </c>
       <c r="J30" t="n">
-        <v>37.21424102783203</v>
+        <v>12.91937732696533</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>model_5_8_5</t>
+          <t>model_1_9_22</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.8493426823475708</v>
+        <v>0.936955708119744</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3720736703769706</v>
+        <v>0.6324413361265547</v>
       </c>
       <c r="E31" t="n">
-        <v>0.839541901827456</v>
+        <v>0.8842723271070544</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6130763832956122</v>
+        <v>0.7724688097450537</v>
       </c>
       <c r="G31" t="n">
-        <v>18.16931533813477</v>
+        <v>7.603160381317139</v>
       </c>
       <c r="H31" t="n">
-        <v>62.28982162475586</v>
+        <v>31.25693511962891</v>
       </c>
       <c r="I31" t="n">
-        <v>17.7766227722168</v>
+        <v>13.80097389221191</v>
       </c>
       <c r="J31" t="n">
-        <v>41.3424186706543</v>
+        <v>23.0423412322998</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>model_5_5_0</t>
+          <t>model_1_9_23</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.8487082205008645</v>
+        <v>0.936315496808614</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8399115379069472</v>
+        <v>0.6301711196527551</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7712395585067179</v>
+        <v>0.8801666347441079</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8147301259589963</v>
+        <v>0.7691841773871964</v>
       </c>
       <c r="G32" t="n">
-        <v>18.2458324432373</v>
+        <v>7.680369853973389</v>
       </c>
       <c r="H32" t="n">
-        <v>14.5552282333374</v>
+        <v>31.44999122619629</v>
       </c>
       <c r="I32" t="n">
-        <v>18.49990272521973</v>
+        <v>14.29059410095215</v>
       </c>
       <c r="J32" t="n">
-        <v>16.41153907775879</v>
+        <v>23.37498092651367</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>model_5_8_4</t>
+          <t>model_5_9_10</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.8485933578397293</v>
+        <v>0.936108634885306</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3664160984132845</v>
+        <v>0.7964109591972509</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8466994524405564</v>
+        <v>0.8243862544340906</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6137874264367028</v>
+        <v>0.8335197194091947</v>
       </c>
       <c r="G33" t="n">
-        <v>18.25968551635742</v>
+        <v>7.705317497253418</v>
       </c>
       <c r="H33" t="n">
-        <v>62.85104751586914</v>
+        <v>11.28034687042236</v>
       </c>
       <c r="I33" t="n">
-        <v>16.98366165161133</v>
+        <v>16.76535034179688</v>
       </c>
       <c r="J33" t="n">
-        <v>41.26644515991211</v>
+        <v>13.86152458190918</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>model_5_6_1</t>
+          <t>model_5_9_2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.8474633949310328</v>
+        <v>0.9356987808532836</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9178551564221281</v>
+        <v>0.7265352224495372</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5133405551534094</v>
+        <v>0.966453436862192</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7269534057387799</v>
+        <v>0.8855574461836943</v>
       </c>
       <c r="G34" t="n">
-        <v>18.39596176147461</v>
+        <v>7.754746437072754</v>
       </c>
       <c r="H34" t="n">
-        <v>9.358989715576172</v>
+        <v>15.15198421478271</v>
       </c>
       <c r="I34" t="n">
-        <v>57.08873748779297</v>
+        <v>3.202596187591553</v>
       </c>
       <c r="J34" t="n">
-        <v>31.82003974914551</v>
+        <v>9.528746604919434</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>model_5_4_2</t>
+          <t>model_1_9_24</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.846946193427065</v>
+        <v>0.9356649372072069</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9406532051210998</v>
+        <v>0.6281326422425304</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7058053194028606</v>
+        <v>0.8758492127083037</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7865343629316108</v>
+        <v>0.7658854630332599</v>
       </c>
       <c r="G35" t="n">
-        <v>18.45833396911621</v>
+        <v>7.758827209472656</v>
       </c>
       <c r="H35" t="n">
-        <v>3.716994285583496</v>
+        <v>31.62334442138672</v>
       </c>
       <c r="I35" t="n">
-        <v>39.68027496337891</v>
+        <v>14.80546379089355</v>
       </c>
       <c r="J35" t="n">
-        <v>20.64087867736816</v>
+        <v>23.70904541015625</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>model_5_4_1</t>
+          <t>model_5_9_8</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8454808762380306</v>
+        <v>0.9346219702614453</v>
       </c>
       <c r="D36" t="n">
-        <v>0.938930069391415</v>
+        <v>0.7997719682766736</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7060634965341566</v>
+        <v>0.8285297140930412</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7861128932983569</v>
+        <v>0.8369395378317135</v>
       </c>
       <c r="G36" t="n">
-        <v>18.63505363464355</v>
+        <v>7.884609699249268</v>
       </c>
       <c r="H36" t="n">
-        <v>3.824917316436768</v>
+        <v>11.09412288665771</v>
       </c>
       <c r="I36" t="n">
-        <v>39.64545440673828</v>
+        <v>16.36978721618652</v>
       </c>
       <c r="J36" t="n">
-        <v>20.68163108825684</v>
+        <v>13.57678318023682</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>model_5_9_0</t>
+          <t>model_5_9_12</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.8432236391404071</v>
+        <v>0.9254800292359139</v>
       </c>
       <c r="D37" t="n">
-        <v>0.631101095624749</v>
+        <v>0.5358853238412777</v>
       </c>
       <c r="E37" t="n">
-        <v>0.989089128078849</v>
+        <v>0.8097218309325476</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8971500551309601</v>
+        <v>0.7338236268587122</v>
       </c>
       <c r="G37" t="n">
-        <v>18.90727424621582</v>
+        <v>8.987131118774414</v>
       </c>
       <c r="H37" t="n">
-        <v>26.9152717590332</v>
+        <v>25.71540451049805</v>
       </c>
       <c r="I37" t="n">
-        <v>1.993222951889038</v>
+        <v>18.16532325744629</v>
       </c>
       <c r="J37" t="n">
-        <v>15.18721771240234</v>
+        <v>22.16244697570801</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>model_5_7_4</t>
+          <t>model_5_9_13</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.842723680308199</v>
+        <v>0.9239825017459706</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6907766613368402</v>
+        <v>0.5064577970135182</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7816221751258766</v>
+        <v>0.8093341550339628</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7652770430023622</v>
+        <v>0.7232472951273612</v>
       </c>
       <c r="G38" t="n">
-        <v>18.96757125854492</v>
+        <v>9.167733192443848</v>
       </c>
       <c r="H38" t="n">
-        <v>19.58846282958984</v>
+        <v>27.34590911865234</v>
       </c>
       <c r="I38" t="n">
-        <v>15.13049983978271</v>
+        <v>18.20233345031738</v>
       </c>
       <c r="J38" t="n">
-        <v>17.49059104919434</v>
+        <v>23.04305458068848</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>model_5_8_3</t>
+          <t>model_1_8_7</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.842040010401098</v>
+        <v>0.9150395940867848</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4192480407732289</v>
+        <v>0.6125169174505855</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8498547320268965</v>
+        <v>0.9126989411440439</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6412945669920207</v>
+        <v>0.8347674447944713</v>
       </c>
       <c r="G39" t="n">
-        <v>19.05002212524414</v>
+        <v>10.24624919891357</v>
       </c>
       <c r="H39" t="n">
-        <v>57.61016082763672</v>
+        <v>10.66453838348389</v>
       </c>
       <c r="I39" t="n">
-        <v>16.63409805297852</v>
+        <v>6.871098518371582</v>
       </c>
       <c r="J39" t="n">
-        <v>38.32733154296875</v>
+        <v>8.879405975341797</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>model_5_7_5</t>
+          <t>model_1_8_6</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.8413656912173005</v>
+        <v>0.9139470042434831</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3718702633588516</v>
+        <v>0.6329237601159667</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7909732231478854</v>
+        <v>0.9204751044917233</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6258409206385803</v>
+        <v>0.8456599530196455</v>
       </c>
       <c r="G40" t="n">
-        <v>19.13134384155273</v>
+        <v>10.37801647186279</v>
       </c>
       <c r="H40" t="n">
-        <v>39.79032516479492</v>
+        <v>10.1028881072998</v>
       </c>
       <c r="I40" t="n">
-        <v>14.48260498046875</v>
+        <v>6.259069442749023</v>
       </c>
       <c r="J40" t="n">
-        <v>27.88079833984375</v>
+        <v>8.294055938720703</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>model_1_8_5</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9124193494938703</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.64801679304167</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9268034264971068</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8541152900781602</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10.56225299835205</v>
+      </c>
+      <c r="H41" t="n">
+        <v>9.68748950958252</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.760993957519531</v>
+      </c>
+      <c r="J41" t="n">
+        <v>7.839675903320312</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>model_5_8_10</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9112225335276132</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9773703843668888</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7931333147313844</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8747283176566234</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10.70658874511719</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.752971172332764</v>
+      </c>
+      <c r="I42" t="n">
+        <v>22.78466796875</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11.65023708343506</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>model_5_8_9</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9110401557753863</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9722990852738294</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8156567412523449</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.885045156688504</v>
+      </c>
+      <c r="G43" t="n">
+        <v>10.72858333587646</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.145812034606934</v>
+      </c>
+      <c r="I43" t="n">
+        <v>20.30389785766602</v>
+      </c>
+      <c r="J43" t="n">
+        <v>10.69077396392822</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>model_5_8_8</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9108682688526919</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9684287591838262</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.8371314862677495</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8953067225783448</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10.74931335449219</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.445621490478516</v>
+      </c>
+      <c r="I44" t="n">
+        <v>17.93862915039062</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9.736452102661133</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>model_5_8_11</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9105238864163776</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9814636180314535</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.7658985429762704</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8613545788436168</v>
+      </c>
+      <c r="G45" t="n">
+        <v>10.79084587097168</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.43589448928833</v>
+      </c>
+      <c r="I45" t="n">
+        <v>25.78435516357422</v>
+      </c>
+      <c r="J45" t="n">
+        <v>12.89399147033691</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>model_1_8_4</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9104930061662034</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.6587053218259848</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.93179156834583</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8604512872619807</v>
+      </c>
+      <c r="G46" t="n">
+        <v>10.79456996917725</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9.393313407897949</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.368398189544678</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7.499186992645264</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>model_5_8_7</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9102431070121112</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9660683693237389</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.8541092842250244</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9037281152954013</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10.82470798492432</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.628465890884399</v>
+      </c>
+      <c r="I47" t="n">
+        <v>16.06866455078125</v>
+      </c>
+      <c r="J47" t="n">
+        <v>8.953264236450195</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>model_5_8_6</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9090332519218076</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.9641772048532623</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8672897212885083</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9102400929375181</v>
+      </c>
+      <c r="G48" t="n">
+        <v>10.97061634063721</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.774962425231934</v>
+      </c>
+      <c r="I48" t="n">
+        <v>14.6169490814209</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8.347651481628418</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>model_5_8_12</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9082224899217954</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.982317360593764</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.7296717229491769</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8415407857239058</v>
+      </c>
+      <c r="G49" t="n">
+        <v>11.06839466094971</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.369760632514954</v>
+      </c>
+      <c r="I49" t="n">
+        <v>29.77444076538086</v>
+      </c>
+      <c r="J49" t="n">
+        <v>14.73667049407959</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>model_1_8_3</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9082078485181694</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.665710050959663</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9356169577831814</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8649854911749975</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11.07016086578369</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9.20052433013916</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.067317962646484</v>
+      </c>
+      <c r="J50" t="n">
+        <v>7.255523681640625</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>model_5_8_5</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9073790175874564</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9623644737074928</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.8780486604324617</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9154368706871736</v>
+      </c>
+      <c r="G51" t="n">
+        <v>11.17011833190918</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.915382623672485</v>
+      </c>
+      <c r="I51" t="n">
+        <v>13.43194007873535</v>
+      </c>
+      <c r="J51" t="n">
+        <v>7.864352226257324</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>model_1_8_2</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.90559887576547</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.6697213336913701</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.9384306220508783</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.8680128714671462</v>
+      </c>
+      <c r="G52" t="n">
+        <v>11.38480281829834</v>
+      </c>
+      <c r="H52" t="n">
+        <v>9.090124130249023</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4.845866203308105</v>
+      </c>
+      <c r="J52" t="n">
+        <v>7.092835903167725</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>model_5_8_4</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9053864795289926</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.9605175994879411</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.8872433506113094</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.9197469057462648</v>
+      </c>
+      <c r="G53" t="n">
+        <v>11.41041851043701</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.058448076248169</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12.41921997070312</v>
+      </c>
+      <c r="J53" t="n">
+        <v>7.463520050048828</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>model_5_8_13</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.9040680877393859</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9791766050682571</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.683762962457564</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.8145695330877826</v>
+      </c>
+      <c r="G54" t="n">
+        <v>11.56941699981689</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.613054871559143</v>
+      </c>
+      <c r="I54" t="n">
+        <v>34.83091354370117</v>
+      </c>
+      <c r="J54" t="n">
+        <v>17.2449893951416</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>model_5_8_3</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.9031126052713823</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9585983936476806</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.8954062552055931</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9234500515586864</v>
+      </c>
+      <c r="G55" t="n">
+        <v>11.68464851379395</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.207116842269897</v>
+      </c>
+      <c r="I55" t="n">
+        <v>11.52014350891113</v>
+      </c>
+      <c r="J55" t="n">
+        <v>7.119128227233887</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>model_1_6_1</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.9027578227300372</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.9548806724758057</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.7715133241556414</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.8661473876884616</v>
+      </c>
+      <c r="G56" t="n">
+        <v>11.7274341583252</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4.218828678131104</v>
+      </c>
+      <c r="I56" t="n">
+        <v>34.14886474609375</v>
+      </c>
+      <c r="J56" t="n">
+        <v>18.30354690551758</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>model_1_8_1</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.9026914842305059</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.6713882534970115</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.9403100004660547</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.8697600516178245</v>
+      </c>
+      <c r="G57" t="n">
+        <v>11.73543548583984</v>
+      </c>
+      <c r="H57" t="n">
+        <v>9.044245719909668</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4.697948455810547</v>
+      </c>
+      <c r="J57" t="n">
+        <v>6.998944282531738</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>model_1_6_0</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.9020909114768997</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.9545001598863385</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.7726009423640529</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.8665690776358906</v>
+      </c>
+      <c r="G58" t="n">
+        <v>11.80786609649658</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.25440788269043</v>
+      </c>
+      <c r="I58" t="n">
+        <v>33.98631286621094</v>
+      </c>
+      <c r="J58" t="n">
+        <v>18.24588203430176</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>model_1_6_2</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.9015261740762136</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.953785713387843</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.7519543464211121</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.8556909708526157</v>
+      </c>
+      <c r="G59" t="n">
+        <v>11.87597179412842</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4.321211814880371</v>
+      </c>
+      <c r="I59" t="n">
+        <v>37.07208633422852</v>
+      </c>
+      <c r="J59" t="n">
+        <v>19.73340034484863</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>model_5_8_2</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.9005839834814345</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.9565839294335132</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.9029088623356492</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.92674304452504</v>
+      </c>
+      <c r="G60" t="n">
+        <v>11.98960018157959</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.36316442489624</v>
+      </c>
+      <c r="I60" t="n">
+        <v>10.69379234313965</v>
+      </c>
+      <c r="J60" t="n">
+        <v>6.812880039215088</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>model_1_8_0</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.8994854020812232</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.6710255468275502</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.9412020265841833</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8702775762846346</v>
+      </c>
+      <c r="G61" t="n">
+        <v>12.12209129333496</v>
+      </c>
+      <c r="H61" t="n">
+        <v>9.054228782653809</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4.627740859985352</v>
+      </c>
+      <c r="J61" t="n">
+        <v>6.971133708953857</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>model_5_8_1</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.8978083042549787</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9544672667661585</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9099692257557542</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9297447161418053</v>
+      </c>
+      <c r="G62" t="n">
+        <v>12.32434940338135</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.527128934860229</v>
+      </c>
+      <c r="I62" t="n">
+        <v>9.91615104675293</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6.533725738525391</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>model_1_6_3</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.8956436355993175</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.9496272603150416</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.7086837613781989</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.831930016297512</v>
+      </c>
+      <c r="G63" t="n">
+        <v>12.58540821075439</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4.710042953491211</v>
+      </c>
+      <c r="I63" t="n">
+        <v>43.53916168212891</v>
+      </c>
+      <c r="J63" t="n">
+        <v>22.98257064819336</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>model_5_8_0</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.894574289023456</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9523035212361918</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.9154471197541845</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9318435035941279</v>
+      </c>
+      <c r="G64" t="n">
+        <v>12.71437168121338</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.694739818572998</v>
+      </c>
+      <c r="I64" t="n">
+        <v>9.312806129455566</v>
+      </c>
+      <c r="J64" t="n">
+        <v>6.338538646697998</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>model_5_4_0</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0.8239436507870593</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.9574295790508298</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.7301799248458369</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.8082872307982538</v>
-      </c>
-      <c r="G41" t="n">
-        <v>21.23244857788086</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2.666260719299316</v>
-      </c>
-      <c r="I41" t="n">
-        <v>36.3926887512207</v>
-      </c>
-      <c r="J41" t="n">
-        <v>18.53750228881836</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Hidden Size=[16, 15], regularizer=0.02, learning_rate=0.02</t>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>model_5_7_24</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.8906869632217371</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.8433984290636247</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.7737180536395754</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.8082719379676069</v>
+      </c>
+      <c r="G65" t="n">
+        <v>13.18318367004395</v>
+      </c>
+      <c r="H65" t="n">
+        <v>22.50081443786621</v>
+      </c>
+      <c r="I65" t="n">
+        <v>37.23163604736328</v>
+      </c>
+      <c r="J65" t="n">
+        <v>29.43296241760254</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>model_5_7_23</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.8903195816880839</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.8472275419775476</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.7755260656564668</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.8110812228878616</v>
+      </c>
+      <c r="G66" t="n">
+        <v>13.2274923324585</v>
+      </c>
+      <c r="H66" t="n">
+        <v>21.95063972473145</v>
+      </c>
+      <c r="I66" t="n">
+        <v>36.93415069580078</v>
+      </c>
+      <c r="J66" t="n">
+        <v>29.0016975402832</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>model_5_7_22</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.8899385869854597</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.851002147480912</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.7775878243951212</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.813991443234917</v>
+      </c>
+      <c r="G67" t="n">
+        <v>13.27343845367432</v>
+      </c>
+      <c r="H67" t="n">
+        <v>21.40829849243164</v>
+      </c>
+      <c r="I67" t="n">
+        <v>36.59491729736328</v>
+      </c>
+      <c r="J67" t="n">
+        <v>28.55494117736816</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>model_5_7_21</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0.8895521799685406</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.8546605054143022</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.7800378030936841</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.8170399038839664</v>
+      </c>
+      <c r="G68" t="n">
+        <v>13.32003974914551</v>
+      </c>
+      <c r="H68" t="n">
+        <v>20.88265609741211</v>
+      </c>
+      <c r="I68" t="n">
+        <v>36.19180297851562</v>
+      </c>
+      <c r="J68" t="n">
+        <v>28.08695793151855</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>model_5_7_20</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.8891705550481991</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.8582283541782373</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.7829176367138864</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.8202603421866835</v>
+      </c>
+      <c r="G69" t="n">
+        <v>13.36606407165527</v>
+      </c>
+      <c r="H69" t="n">
+        <v>20.37001991271973</v>
+      </c>
+      <c r="I69" t="n">
+        <v>35.71796798706055</v>
+      </c>
+      <c r="J69" t="n">
+        <v>27.59257507324219</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>model_5_7_19</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.8887913073773338</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.8616504798075275</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.7862762289796443</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.8236499818758088</v>
+      </c>
+      <c r="G70" t="n">
+        <v>13.4118013381958</v>
+      </c>
+      <c r="H70" t="n">
+        <v>19.87832450866699</v>
+      </c>
+      <c r="I70" t="n">
+        <v>35.16535568237305</v>
+      </c>
+      <c r="J70" t="n">
+        <v>27.07221794128418</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>model_5_7_18</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.8884172602124818</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.8649135553316493</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.79015385354395</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.8272226061928292</v>
+      </c>
+      <c r="G71" t="n">
+        <v>13.45691108703613</v>
+      </c>
+      <c r="H71" t="n">
+        <v>19.40947914123535</v>
+      </c>
+      <c r="I71" t="n">
+        <v>34.52734756469727</v>
+      </c>
+      <c r="J71" t="n">
+        <v>26.52376747131348</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>model_5_7_17</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.8880388591778564</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.8680121120491009</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.7945344636932101</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.8309674163038024</v>
+      </c>
+      <c r="G72" t="n">
+        <v>13.50254726409912</v>
+      </c>
+      <c r="H72" t="n">
+        <v>18.96427345275879</v>
+      </c>
+      <c r="I72" t="n">
+        <v>33.80657577514648</v>
+      </c>
+      <c r="J72" t="n">
+        <v>25.94888687133789</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>model_5_7_16</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.8876733019599401</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.8710045911819563</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.7994566006327575</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.8349328518212147</v>
+      </c>
+      <c r="G73" t="n">
+        <v>13.54663276672363</v>
+      </c>
+      <c r="H73" t="n">
+        <v>18.53430938720703</v>
+      </c>
+      <c r="I73" t="n">
+        <v>32.9967041015625</v>
+      </c>
+      <c r="J73" t="n">
+        <v>25.34013557434082</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>model_5_7_15</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.8873153389061107</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.8738996494144403</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.8049130598615692</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.8391193752766544</v>
+      </c>
+      <c r="G74" t="n">
+        <v>13.58980464935303</v>
+      </c>
+      <c r="H74" t="n">
+        <v>18.11834144592285</v>
+      </c>
+      <c r="I74" t="n">
+        <v>32.09891510009766</v>
+      </c>
+      <c r="J74" t="n">
+        <v>24.69744491577148</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>model_5_7_14</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.8869755588191618</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.8767742652833346</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.8109177770973515</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.843572504563242</v>
+      </c>
+      <c r="G75" t="n">
+        <v>13.63078117370605</v>
+      </c>
+      <c r="H75" t="n">
+        <v>17.7053108215332</v>
+      </c>
+      <c r="I75" t="n">
+        <v>31.11092376708984</v>
+      </c>
+      <c r="J75" t="n">
+        <v>24.01383018493652</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>model_5_7_13</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.8866267755945996</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.8796049822390593</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.8173732295081475</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.8482310309220698</v>
+      </c>
+      <c r="G76" t="n">
+        <v>13.67284488677979</v>
+      </c>
+      <c r="H76" t="n">
+        <v>17.2985897064209</v>
+      </c>
+      <c r="I76" t="n">
+        <v>30.04876327514648</v>
+      </c>
+      <c r="J76" t="n">
+        <v>23.29867935180664</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>model_5_7_12</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.8862538888848339</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.8824369993213335</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.8241816745412384</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.8530683276932408</v>
+      </c>
+      <c r="G77" t="n">
+        <v>13.71781444549561</v>
+      </c>
+      <c r="H77" t="n">
+        <v>16.89167785644531</v>
+      </c>
+      <c r="I77" t="n">
+        <v>28.92852783203125</v>
+      </c>
+      <c r="J77" t="n">
+        <v>22.55608749389648</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>model_5_7_11</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0.8858016942297161</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.8852314546167266</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.8311234051384951</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.8579542952035152</v>
+      </c>
+      <c r="G78" t="n">
+        <v>13.77234935760498</v>
+      </c>
+      <c r="H78" t="n">
+        <v>16.49016571044922</v>
+      </c>
+      <c r="I78" t="n">
+        <v>27.78635787963867</v>
+      </c>
+      <c r="J78" t="n">
+        <v>21.8060188293457</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>model_5_7_10</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0.8852263062140132</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.8879647073388495</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8380128640488173</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.8627834037088544</v>
+      </c>
+      <c r="G79" t="n">
+        <v>13.84174156188965</v>
+      </c>
+      <c r="H79" t="n">
+        <v>16.09744644165039</v>
+      </c>
+      <c r="I79" t="n">
+        <v>26.65279197692871</v>
+      </c>
+      <c r="J79" t="n">
+        <v>21.06468391418457</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>model_5_7_9</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.8844677962735175</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.8906202797747602</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.8445823688143396</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.8674130274311933</v>
+      </c>
+      <c r="G80" t="n">
+        <v>13.93321895599365</v>
+      </c>
+      <c r="H80" t="n">
+        <v>15.71588802337646</v>
+      </c>
+      <c r="I80" t="n">
+        <v>25.57186889648438</v>
+      </c>
+      <c r="J80" t="n">
+        <v>20.35397148132324</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>model_5_7_8</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.8834555120901778</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.8931675212030256</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.8504841918150412</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.8716518694097017</v>
+      </c>
+      <c r="G81" t="n">
+        <v>14.05529975891113</v>
+      </c>
+      <c r="H81" t="n">
+        <v>15.34989547729492</v>
+      </c>
+      <c r="I81" t="n">
+        <v>24.60080337524414</v>
+      </c>
+      <c r="J81" t="n">
+        <v>19.70324897766113</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>model_5_7_7</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.8822574697125392</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.8959733158674044</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.8557459865157798</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.8756957813085476</v>
+      </c>
+      <c r="G82" t="n">
+        <v>14.199782371521</v>
+      </c>
+      <c r="H82" t="n">
+        <v>14.94675350189209</v>
+      </c>
+      <c r="I82" t="n">
+        <v>23.73504638671875</v>
+      </c>
+      <c r="J82" t="n">
+        <v>19.08245277404785</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>model_1_7_11</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.8812993741359273</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.5138579028605552</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.8152563115303636</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.7561716034728035</v>
+      </c>
+      <c r="G83" t="n">
+        <v>14.31533050537109</v>
+      </c>
+      <c r="H83" t="n">
+        <v>18.55045127868652</v>
+      </c>
+      <c r="I83" t="n">
+        <v>12.60528945922852</v>
+      </c>
+      <c r="J83" t="n">
+        <v>15.75274848937988</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>model_5_7_6</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0.881172544292529</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.8999691667062927</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.8609741662555879</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.8803128828372921</v>
+      </c>
+      <c r="G84" t="n">
+        <v>14.33062648773193</v>
+      </c>
+      <c r="H84" t="n">
+        <v>14.37262153625488</v>
+      </c>
+      <c r="I84" t="n">
+        <v>22.87482070922852</v>
+      </c>
+      <c r="J84" t="n">
+        <v>18.3736629486084</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>model_5_7_5</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.8802532794099973</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.9059604565700067</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.8657072319571046</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.8856688510576619</v>
+      </c>
+      <c r="G85" t="n">
+        <v>14.44148921966553</v>
+      </c>
+      <c r="H85" t="n">
+        <v>13.51178169250488</v>
+      </c>
+      <c r="I85" t="n">
+        <v>22.0960578918457</v>
+      </c>
+      <c r="J85" t="n">
+        <v>17.55144500732422</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>model_5_7_0</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.8799755305899986</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.9489762426088787</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.9021027342731993</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.9253404628314125</v>
+      </c>
+      <c r="G86" t="n">
+        <v>14.47498607635498</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7.331192016601562</v>
+      </c>
+      <c r="I86" t="n">
+        <v>16.1076717376709</v>
+      </c>
+      <c r="J86" t="n">
+        <v>11.46129322052002</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>model_5_7_4</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.8793263858865846</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.9139697663748181</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.8690729193276474</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.8913351697475123</v>
+      </c>
+      <c r="G87" t="n">
+        <v>14.55327320098877</v>
+      </c>
+      <c r="H87" t="n">
+        <v>12.36098861694336</v>
+      </c>
+      <c r="I87" t="n">
+        <v>21.54228019714355</v>
+      </c>
+      <c r="J87" t="n">
+        <v>16.68158721923828</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>model_1_7_10</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.8789498909918761</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.5262982582647311</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.8175096679497689</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.7611812872339865</v>
+      </c>
+      <c r="G88" t="n">
+        <v>14.59867858886719</v>
+      </c>
+      <c r="H88" t="n">
+        <v>18.07574462890625</v>
+      </c>
+      <c r="I88" t="n">
+        <v>12.45153999328613</v>
+      </c>
+      <c r="J88" t="n">
+        <v>15.42909145355225</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>model_5_7_3</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.8782472888192974</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9227950817288447</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.8712850641976931</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.8968239582305247</v>
+      </c>
+      <c r="G89" t="n">
+        <v>14.68341255187988</v>
+      </c>
+      <c r="H89" t="n">
+        <v>11.09295082092285</v>
+      </c>
+      <c r="I89" t="n">
+        <v>21.17830276489258</v>
+      </c>
+      <c r="J89" t="n">
+        <v>15.83897876739502</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>model_5_7_1</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.8781639546846028</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.9365498472691703</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.888915099274789</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9125316544033434</v>
+      </c>
+      <c r="G90" t="n">
+        <v>14.6934642791748</v>
+      </c>
+      <c r="H90" t="n">
+        <v>9.116640090942383</v>
+      </c>
+      <c r="I90" t="n">
+        <v>18.27751731872559</v>
+      </c>
+      <c r="J90" t="n">
+        <v>13.42762660980225</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>model_5_7_2</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.8771094392427847</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9301078009357947</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.874844633396441</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.9022429595603562</v>
+      </c>
+      <c r="G91" t="n">
+        <v>14.82063961029053</v>
+      </c>
+      <c r="H91" t="n">
+        <v>10.04224586486816</v>
+      </c>
+      <c r="I91" t="n">
+        <v>20.59262275695801</v>
+      </c>
+      <c r="J91" t="n">
+        <v>15.00708675384521</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>model_1_7_9</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.8764260528192253</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.5380481288178478</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.8196931677603971</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.7659416175732463</v>
+      </c>
+      <c r="G92" t="n">
+        <v>14.90305519104004</v>
+      </c>
+      <c r="H92" t="n">
+        <v>17.62738800048828</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12.30255699157715</v>
+      </c>
+      <c r="J92" t="n">
+        <v>15.12154579162598</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>model_1_7_8</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.8737376736369018</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.5493220678592988</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.8221567184914912</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.7706905377848803</v>
+      </c>
+      <c r="G93" t="n">
+        <v>15.22727298736572</v>
+      </c>
+      <c r="H93" t="n">
+        <v>17.19719123840332</v>
+      </c>
+      <c r="I93" t="n">
+        <v>12.13446617126465</v>
+      </c>
+      <c r="J93" t="n">
+        <v>14.81473922729492</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>model_7_9_6</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.8710450287012327</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.5696237065445489</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.7722132411438736</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.7057780282705153</v>
+      </c>
+      <c r="G94" t="n">
+        <v>15.55200672149658</v>
+      </c>
+      <c r="H94" t="n">
+        <v>39.87141799926758</v>
+      </c>
+      <c r="I94" t="n">
+        <v>47.8488655090332</v>
+      </c>
+      <c r="J94" t="n">
+        <v>43.62555313110352</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>model_1_7_7</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.8709168216465292</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.5603903142531587</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.8253720889078511</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.7757488803890009</v>
+      </c>
+      <c r="G95" t="n">
+        <v>15.56746864318848</v>
+      </c>
+      <c r="H95" t="n">
+        <v>16.77484512329102</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11.91507720947266</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14.48794078826904</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>model_7_9_4</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.8706557154062285</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.5552865447489845</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.7914524751955895</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.7138619725412284</v>
+      </c>
+      <c r="G96" t="n">
+        <v>15.59895896911621</v>
+      </c>
+      <c r="H96" t="n">
+        <v>41.19966125488281</v>
+      </c>
+      <c r="I96" t="n">
+        <v>43.80747222900391</v>
+      </c>
+      <c r="J96" t="n">
+        <v>42.42691040039062</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>model_7_9_5</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.8703500195555083</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.564207077089484</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.776697698179306</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.7069761687592522</v>
+      </c>
+      <c r="G97" t="n">
+        <v>15.63582611083984</v>
+      </c>
+      <c r="H97" t="n">
+        <v>40.37323379516602</v>
+      </c>
+      <c r="I97" t="n">
+        <v>46.9068603515625</v>
+      </c>
+      <c r="J97" t="n">
+        <v>43.44789886474609</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>model_7_9_3</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.8697770739252596</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.5562316872489557</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.7932259826325028</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.7153573404230772</v>
+      </c>
+      <c r="G98" t="n">
+        <v>15.70492362976074</v>
+      </c>
+      <c r="H98" t="n">
+        <v>41.11209869384766</v>
+      </c>
+      <c r="I98" t="n">
+        <v>43.43492889404297</v>
+      </c>
+      <c r="J98" t="n">
+        <v>42.20518493652344</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>model_1_7_6</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.8677154923092264</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.5665709919065416</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.8275093563755062</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.7787441529051108</v>
+      </c>
+      <c r="G99" t="n">
+        <v>15.95355129241943</v>
+      </c>
+      <c r="H99" t="n">
+        <v>16.53899955749512</v>
+      </c>
+      <c r="I99" t="n">
+        <v>11.76924896240234</v>
+      </c>
+      <c r="J99" t="n">
+        <v>14.29442882537842</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>model_7_9_11</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.8676938740734603</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.4905163475358112</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.7495681350969559</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.6645138762177585</v>
+      </c>
+      <c r="G100" t="n">
+        <v>15.95615863800049</v>
+      </c>
+      <c r="H100" t="n">
+        <v>47.20017242431641</v>
+      </c>
+      <c r="I100" t="n">
+        <v>52.60569763183594</v>
+      </c>
+      <c r="J100" t="n">
+        <v>49.74396514892578</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>model_2_6_8</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.866539249527287</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.6715808106876091</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.6933891758527435</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.6796355545631192</v>
+      </c>
+      <c r="G101" t="n">
+        <v>16.09540557861328</v>
+      </c>
+      <c r="H101" t="n">
+        <v>35.20204544067383</v>
+      </c>
+      <c r="I101" t="n">
+        <v>20.99602890014648</v>
+      </c>
+      <c r="J101" t="n">
+        <v>28.51687431335449</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>model_1_7_5</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.8652360432870412</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.5862106340603117</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.8338303513609031</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.7880270803656324</v>
+      </c>
+      <c r="G102" t="n">
+        <v>16.2525749206543</v>
+      </c>
+      <c r="H102" t="n">
+        <v>15.78957939147949</v>
+      </c>
+      <c r="I102" t="n">
+        <v>11.33795928955078</v>
+      </c>
+      <c r="J102" t="n">
+        <v>13.69469738006592</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>model_1_7_4</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.864560238464626</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.6207714005643272</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.8472921563569685</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.8055239481991845</v>
+      </c>
+      <c r="G103" t="n">
+        <v>16.33407592773438</v>
+      </c>
+      <c r="H103" t="n">
+        <v>14.47079277038574</v>
+      </c>
+      <c r="I103" t="n">
+        <v>10.41944408416748</v>
+      </c>
+      <c r="J103" t="n">
+        <v>12.56429576873779</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>model_7_9_2</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.863752483497531</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.5183540348500322</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.8089566274708604</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.7133151739137656</v>
+      </c>
+      <c r="G104" t="n">
+        <v>16.43149185180664</v>
+      </c>
+      <c r="H104" t="n">
+        <v>44.62120056152344</v>
+      </c>
+      <c r="I104" t="n">
+        <v>40.13055419921875</v>
+      </c>
+      <c r="J104" t="n">
+        <v>42.50798416137695</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>model_1_7_3</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.8635416512690994</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.6536250592833313</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.863157141576373</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.8236817944707195</v>
+      </c>
+      <c r="G105" t="n">
+        <v>16.45691871643066</v>
+      </c>
+      <c r="H105" t="n">
+        <v>13.2171459197998</v>
+      </c>
+      <c r="I105" t="n">
+        <v>9.336956977844238</v>
+      </c>
+      <c r="J105" t="n">
+        <v>11.39119243621826</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>model_1_7_2</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.8613413314814137</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.6811380436250393</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.8801525284942232</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.8407313459040907</v>
+      </c>
+      <c r="G106" t="n">
+        <v>16.72227668762207</v>
+      </c>
+      <c r="H106" t="n">
+        <v>12.16729259490967</v>
+      </c>
+      <c r="I106" t="n">
+        <v>8.177340507507324</v>
+      </c>
+      <c r="J106" t="n">
+        <v>10.28969192504883</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>model_7_9_7</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.8603208710631913</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.5271111608726198</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.7359495568543577</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.6675387346986054</v>
+      </c>
+      <c r="G107" t="n">
+        <v>16.8453426361084</v>
+      </c>
+      <c r="H107" t="n">
+        <v>43.80991744995117</v>
+      </c>
+      <c r="I107" t="n">
+        <v>55.46641159057617</v>
+      </c>
+      <c r="J107" t="n">
+        <v>49.29545211791992</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>model_1_7_1</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.855456899653643</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.7157019613908</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.8862338942597974</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.8545615616048823</v>
+      </c>
+      <c r="G108" t="n">
+        <v>17.43194007873535</v>
+      </c>
+      <c r="H108" t="n">
+        <v>10.84838485717773</v>
+      </c>
+      <c r="I108" t="n">
+        <v>7.762401580810547</v>
+      </c>
+      <c r="J108" t="n">
+        <v>9.396177291870117</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>model_3_8_24</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.8539729586325203</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.5278224518875366</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.7114110908852682</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.697341291667386</v>
+      </c>
+      <c r="G109" t="n">
+        <v>17.61090469360352</v>
+      </c>
+      <c r="H109" t="n">
+        <v>36.54036331176758</v>
+      </c>
+      <c r="I109" t="n">
+        <v>56.94964218139648</v>
+      </c>
+      <c r="J109" t="n">
+        <v>46.14474487304688</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>model_3_8_23</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.8533170292994228</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.5303860235406446</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.7126330190210177</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.6987745491422913</v>
+      </c>
+      <c r="G110" t="n">
+        <v>17.69001007080078</v>
+      </c>
+      <c r="H110" t="n">
+        <v>36.34197998046875</v>
+      </c>
+      <c r="I110" t="n">
+        <v>56.70851135253906</v>
+      </c>
+      <c r="J110" t="n">
+        <v>45.92622375488281</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>model_3_8_22</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.8526629780811983</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.5332484251056574</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.7139784395404363</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.7003632873979018</v>
+      </c>
+      <c r="G111" t="n">
+        <v>17.76888847351074</v>
+      </c>
+      <c r="H111" t="n">
+        <v>36.12046813964844</v>
+      </c>
+      <c r="I111" t="n">
+        <v>56.44300842285156</v>
+      </c>
+      <c r="J111" t="n">
+        <v>45.68399047851562</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>model_3_8_21</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.8520235116011035</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.5366054261230415</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.7154297496811207</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.7021491959133266</v>
+      </c>
+      <c r="G112" t="n">
+        <v>17.84601020812988</v>
+      </c>
+      <c r="H112" t="n">
+        <v>35.86067581176758</v>
+      </c>
+      <c r="I112" t="n">
+        <v>56.15660858154297</v>
+      </c>
+      <c r="J112" t="n">
+        <v>45.41170501708984</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>model_3_8_20</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.8514002601519903</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.5403355787970718</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.7170023192017775</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.7041094041155544</v>
+      </c>
+      <c r="G113" t="n">
+        <v>17.92117309570312</v>
+      </c>
+      <c r="H113" t="n">
+        <v>35.57201385498047</v>
+      </c>
+      <c r="I113" t="n">
+        <v>55.84628295898438</v>
+      </c>
+      <c r="J113" t="n">
+        <v>45.11284637451172</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>model_3_8_19</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.8507927123941388</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.5444149342975142</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.7186897390525698</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.7062334325535902</v>
+      </c>
+      <c r="G114" t="n">
+        <v>17.99444389343262</v>
+      </c>
+      <c r="H114" t="n">
+        <v>35.25632476806641</v>
+      </c>
+      <c r="I114" t="n">
+        <v>55.51329040527344</v>
+      </c>
+      <c r="J114" t="n">
+        <v>44.78900146484375</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>model_3_8_18</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.8501838015908768</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.5487832513538571</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.7204991460558771</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.7085092775556834</v>
+      </c>
+      <c r="G115" t="n">
+        <v>18.0678768157959</v>
+      </c>
+      <c r="H115" t="n">
+        <v>34.91827392578125</v>
+      </c>
+      <c r="I115" t="n">
+        <v>55.15621948242188</v>
+      </c>
+      <c r="J115" t="n">
+        <v>44.44202041625977</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>model_3_8_17</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.849581121779296</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.5535993018830199</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.7224253341990226</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.7109766955660801</v>
+      </c>
+      <c r="G116" t="n">
+        <v>18.14056205749512</v>
+      </c>
+      <c r="H116" t="n">
+        <v>34.54557418823242</v>
+      </c>
+      <c r="I116" t="n">
+        <v>54.7761116027832</v>
+      </c>
+      <c r="J116" t="n">
+        <v>44.06582641601562</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>model_2_6_4</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.8489943576154274</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.6318933922453607</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.7214674086176079</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.664499611890961</v>
+      </c>
+      <c r="G117" t="n">
+        <v>18.21132469177246</v>
+      </c>
+      <c r="H117" t="n">
+        <v>39.45599746704102</v>
+      </c>
+      <c r="I117" t="n">
+        <v>19.07329559326172</v>
+      </c>
+      <c r="J117" t="n">
+        <v>29.86418151855469</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>model_3_8_16</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.8489665292397803</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.558618954451457</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.7244789337334072</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.7135763665723112</v>
+      </c>
+      <c r="G118" t="n">
+        <v>18.21468162536621</v>
+      </c>
+      <c r="H118" t="n">
+        <v>34.15711975097656</v>
+      </c>
+      <c r="I118" t="n">
+        <v>54.37085723876953</v>
+      </c>
+      <c r="J118" t="n">
+        <v>43.66946411132812</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>model_3_8_15</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.8483536381421386</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.564013801203487</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.7266655564664415</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.7163580017350124</v>
+      </c>
+      <c r="G119" t="n">
+        <v>18.28859519958496</v>
+      </c>
+      <c r="H119" t="n">
+        <v>33.73962783813477</v>
+      </c>
+      <c r="I119" t="n">
+        <v>53.93935394287109</v>
+      </c>
+      <c r="J119" t="n">
+        <v>43.24536514282227</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>model_3_8_14</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.8477367523932585</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.5694732714120398</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.7289793069723636</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.7192341373047508</v>
+      </c>
+      <c r="G120" t="n">
+        <v>18.36299133300781</v>
+      </c>
+      <c r="H120" t="n">
+        <v>33.31713485717773</v>
+      </c>
+      <c r="I120" t="n">
+        <v>53.48276138305664</v>
+      </c>
+      <c r="J120" t="n">
+        <v>42.80685424804688</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>model_3_8_13</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.8470693426572171</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.5749272319310534</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.7314200786300044</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.722186493535533</v>
+      </c>
+      <c r="G121" t="n">
+        <v>18.44348335266113</v>
+      </c>
+      <c r="H121" t="n">
+        <v>32.89506912231445</v>
+      </c>
+      <c r="I121" t="n">
+        <v>53.00110244750977</v>
+      </c>
+      <c r="J121" t="n">
+        <v>42.35672378540039</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>model_3_8_12</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.8463096369675727</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.580215293056199</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.733957780785767</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.7251532486776093</v>
+      </c>
+      <c r="G122" t="n">
+        <v>18.53510475158691</v>
+      </c>
+      <c r="H122" t="n">
+        <v>32.48584365844727</v>
+      </c>
+      <c r="I122" t="n">
+        <v>52.50032043457031</v>
+      </c>
+      <c r="J122" t="n">
+        <v>41.90439605712891</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>model_3_8_11</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.8454882168266284</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.5853683884065159</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.7366130703095727</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.7281551723932703</v>
+      </c>
+      <c r="G123" t="n">
+        <v>18.6341667175293</v>
+      </c>
+      <c r="H123" t="n">
+        <v>32.08706283569336</v>
+      </c>
+      <c r="I123" t="n">
+        <v>51.9763298034668</v>
+      </c>
+      <c r="J123" t="n">
+        <v>41.44671630859375</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>model_1_7_0</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.8454021596068929</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.7558673808742369</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.8930424169494949</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.8705048144604215</v>
+      </c>
+      <c r="G124" t="n">
+        <v>18.64454650878906</v>
+      </c>
+      <c r="H124" t="n">
+        <v>9.315732955932617</v>
+      </c>
+      <c r="I124" t="n">
+        <v>7.297847747802734</v>
+      </c>
+      <c r="J124" t="n">
+        <v>8.36614990234375</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>model_3_8_10</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.8445689354811508</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.5901350275286765</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.7394030513663874</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.7311355779338644</v>
+      </c>
+      <c r="G125" t="n">
+        <v>18.74503517150879</v>
+      </c>
+      <c r="H125" t="n">
+        <v>31.71818733215332</v>
+      </c>
+      <c r="I125" t="n">
+        <v>51.42575836181641</v>
+      </c>
+      <c r="J125" t="n">
+        <v>40.9923095703125</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>model_3_8_9</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.8435574314145849</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.5943008891431334</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.7423528476641439</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.7340513623455904</v>
+      </c>
+      <c r="G126" t="n">
+        <v>18.86701965332031</v>
+      </c>
+      <c r="H126" t="n">
+        <v>31.39579963684082</v>
+      </c>
+      <c r="I126" t="n">
+        <v>50.84364700317383</v>
+      </c>
+      <c r="J126" t="n">
+        <v>40.54775619506836</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>model_3_8_8</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.8424305257894812</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.5979084336213186</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.745455020488512</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.7369104165619136</v>
+      </c>
+      <c r="G127" t="n">
+        <v>19.00292587280273</v>
+      </c>
+      <c r="H127" t="n">
+        <v>31.11662864685059</v>
+      </c>
+      <c r="I127" t="n">
+        <v>50.23147201538086</v>
+      </c>
+      <c r="J127" t="n">
+        <v>40.11185073852539</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>model_3_8_7</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.8411819428935564</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.6007586394691726</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.7487580349752863</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.7396881061577719</v>
+      </c>
+      <c r="G128" t="n">
+        <v>19.15350532531738</v>
+      </c>
+      <c r="H128" t="n">
+        <v>30.89606094360352</v>
+      </c>
+      <c r="I128" t="n">
+        <v>49.57965850830078</v>
+      </c>
+      <c r="J128" t="n">
+        <v>39.68835067749023</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>model_3_8_6</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.8397916690025975</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.6026522603729569</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.7522699838373438</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.7423359658039248</v>
+      </c>
+      <c r="G129" t="n">
+        <v>19.32117080688477</v>
+      </c>
+      <c r="H129" t="n">
+        <v>30.74951934814453</v>
+      </c>
+      <c r="I129" t="n">
+        <v>48.88661575317383</v>
+      </c>
+      <c r="J129" t="n">
+        <v>39.28464508056641</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>model_3_8_5</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.8383024411654668</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.6038923679876169</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.7560756010775709</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.7449873281952513</v>
+      </c>
+      <c r="G130" t="n">
+        <v>19.50077438354492</v>
+      </c>
+      <c r="H130" t="n">
+        <v>30.65354347229004</v>
+      </c>
+      <c r="I130" t="n">
+        <v>48.13562393188477</v>
+      </c>
+      <c r="J130" t="n">
+        <v>38.88040542602539</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>model_3_8_4</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.8366579475924203</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.6043185580280728</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.7601631763766518</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.7475915639645832</v>
+      </c>
+      <c r="G131" t="n">
+        <v>19.69910049438477</v>
+      </c>
+      <c r="H131" t="n">
+        <v>30.62056732177734</v>
+      </c>
+      <c r="I131" t="n">
+        <v>47.32898712158203</v>
+      </c>
+      <c r="J131" t="n">
+        <v>38.48335266113281</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>model_3_8_3</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.8349181618731115</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.6040501469182114</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.764606749245307</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.750225952577165</v>
+      </c>
+      <c r="G132" t="n">
+        <v>19.9089183807373</v>
+      </c>
+      <c r="H132" t="n">
+        <v>30.64133644104004</v>
+      </c>
+      <c r="I132" t="n">
+        <v>46.45210266113281</v>
+      </c>
+      <c r="J132" t="n">
+        <v>38.08169937133789</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>model_2_5_0</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.8332377444946948</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.8933176829053535</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.7489058201750634</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.846266061600791</v>
+      </c>
+      <c r="G133" t="n">
+        <v>20.11157608032227</v>
+      </c>
+      <c r="H133" t="n">
+        <v>19.99469566345215</v>
+      </c>
+      <c r="I133" t="n">
+        <v>25.62961196899414</v>
+      </c>
+      <c r="J133" t="n">
+        <v>22.64641761779785</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>model_3_8_2</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.8330914128285447</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.6032683342964427</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.7693676106112691</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.7529155847320235</v>
+      </c>
+      <c r="G134" t="n">
+        <v>20.12922477722168</v>
+      </c>
+      <c r="H134" t="n">
+        <v>30.70183944702148</v>
+      </c>
+      <c r="I134" t="n">
+        <v>45.51260375976562</v>
+      </c>
+      <c r="J134" t="n">
+        <v>37.671630859375</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>model_3_8_1</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.8311909419057393</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.6021801095671558</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.7744428485159942</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.7557146294971372</v>
+      </c>
+      <c r="G135" t="n">
+        <v>20.35842323303223</v>
+      </c>
+      <c r="H135" t="n">
+        <v>30.78605461120605</v>
+      </c>
+      <c r="I135" t="n">
+        <v>44.51106262207031</v>
+      </c>
+      <c r="J135" t="n">
+        <v>37.244873046875</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>model_3_8_0</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.8291872512479108</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.6007320076268605</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.7797831829400637</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.7585782594263949</v>
+      </c>
+      <c r="G136" t="n">
+        <v>20.60006713867188</v>
+      </c>
+      <c r="H136" t="n">
+        <v>30.89811515808105</v>
+      </c>
+      <c r="I136" t="n">
+        <v>43.45721054077148</v>
+      </c>
+      <c r="J136" t="n">
+        <v>36.80826950073242</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>model_7_1_0</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.824429433272254</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.6989678678357852</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.7291501811161871</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.7438292628109939</v>
+      </c>
+      <c r="G137" t="n">
+        <v>21.17386245727539</v>
+      </c>
+      <c r="H137" t="n">
+        <v>22.25307846069336</v>
+      </c>
+      <c r="I137" t="n">
+        <v>45.3962516784668</v>
+      </c>
+      <c r="J137" t="n">
+        <v>33.14399719238281</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.1, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>model_5_5_0</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.8243268158810567</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.9478327207542535</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.964916947605762</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.9712237088017436</v>
+      </c>
+      <c r="G138" t="n">
+        <v>21.18623924255371</v>
+      </c>
+      <c r="H138" t="n">
+        <v>3.600372791290283</v>
+      </c>
+      <c r="I138" t="n">
+        <v>5.294903755187988</v>
+      </c>
+      <c r="J138" t="n">
+        <v>4.397809505462646</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Hidden Size=[30, 15], regularizer=0.02, learning_rate=0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>model_2_3_2</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.8239957282401389</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.6576840312476251</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.836740503515305</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.7247106433222406</v>
+      </c>
+      <c r="G139" t="n">
+        <v>21.22616577148438</v>
+      </c>
+      <c r="H139" t="n">
+        <v>37.23960876464844</v>
+      </c>
+      <c r="I139" t="n">
+        <v>10.27231788635254</v>
+      </c>
+      <c r="J139" t="n">
+        <v>24.54912948608398</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Hidden Size=[70, 35], regularizer=0.1, learning_rate=0.02</t>
         </is>
       </c>
     </row>
